--- a/natmiOut/OldD0/LR-pairs_lrc2p/Col1a2-Itgb1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Col1a2-Itgb1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.59269372201408</v>
+        <v>10.45491533333333</v>
       </c>
       <c r="H2">
-        <v>5.59269372201408</v>
+        <v>31.364746</v>
       </c>
       <c r="I2">
-        <v>0.007286611469884</v>
+        <v>0.0134573334963438</v>
       </c>
       <c r="J2">
-        <v>0.007286611469884</v>
+        <v>0.0134573334963438</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N2">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O2">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P2">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q2">
-        <v>591.5994515451333</v>
+        <v>1223.690996391999</v>
       </c>
       <c r="R2">
-        <v>591.5994515451333</v>
+        <v>11013.21896752799</v>
       </c>
       <c r="S2">
-        <v>0.002217151508550486</v>
+        <v>0.004367396780809915</v>
       </c>
       <c r="T2">
-        <v>0.002217151508550486</v>
+        <v>0.004367396780809914</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.59269372201408</v>
+        <v>10.45491533333333</v>
       </c>
       <c r="H3">
-        <v>5.59269372201408</v>
+        <v>31.364746</v>
       </c>
       <c r="I3">
-        <v>0.007286611469884</v>
+        <v>0.0134573334963438</v>
       </c>
       <c r="J3">
-        <v>0.007286611469884</v>
+        <v>0.0134573334963438</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N3">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P3">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q3">
-        <v>567.6095652666802</v>
+        <v>1062.010689876839</v>
       </c>
       <c r="R3">
-        <v>567.6095652666802</v>
+        <v>9558.096208891553</v>
       </c>
       <c r="S3">
-        <v>0.002127244034138014</v>
+        <v>0.003790354004262044</v>
       </c>
       <c r="T3">
-        <v>0.002127244034138014</v>
+        <v>0.003790354004262042</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.59269372201408</v>
+        <v>10.45491533333333</v>
       </c>
       <c r="H4">
-        <v>5.59269372201408</v>
+        <v>31.364746</v>
       </c>
       <c r="I4">
-        <v>0.007286611469884</v>
+        <v>0.0134573334963438</v>
       </c>
       <c r="J4">
-        <v>0.007286611469884</v>
+        <v>0.0134573334963438</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N4">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P4">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q4">
-        <v>785.0673813420087</v>
+        <v>1484.87805754517</v>
       </c>
       <c r="R4">
-        <v>785.0673813420087</v>
+        <v>13363.90251790653</v>
       </c>
       <c r="S4">
-        <v>0.002942215927195501</v>
+        <v>0.005299582711271842</v>
       </c>
       <c r="T4">
-        <v>0.002942215927195501</v>
+        <v>0.005299582711271842</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>731.088096626592</v>
+        <v>735.4993083333334</v>
       </c>
       <c r="H5">
-        <v>731.088096626592</v>
+        <v>2206.497925</v>
       </c>
       <c r="I5">
-        <v>0.9525204087980228</v>
+        <v>0.9467182815928301</v>
       </c>
       <c r="J5">
-        <v>0.9525204087980228</v>
+        <v>0.9467182815928301</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N5">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O5">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P5">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q5">
-        <v>77335.06222466769</v>
+        <v>86086.19513067725</v>
       </c>
       <c r="R5">
-        <v>77335.06222466769</v>
+        <v>774775.7561760953</v>
       </c>
       <c r="S5">
-        <v>0.2898304747028432</v>
+        <v>0.3072446986979827</v>
       </c>
       <c r="T5">
-        <v>0.2898304747028432</v>
+        <v>0.3072446986979827</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>731.088096626592</v>
+        <v>735.4993083333334</v>
       </c>
       <c r="H6">
-        <v>731.088096626592</v>
+        <v>2206.497925</v>
       </c>
       <c r="I6">
-        <v>0.9525204087980228</v>
+        <v>0.9467182815928301</v>
       </c>
       <c r="J6">
-        <v>0.9525204087980228</v>
+        <v>0.9467182815928301</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N6">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P6">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q6">
-        <v>74199.05636248962</v>
+        <v>74712.04719914086</v>
       </c>
       <c r="R6">
-        <v>74199.05636248962</v>
+        <v>672408.4247922676</v>
       </c>
       <c r="S6">
-        <v>0.2780775900272549</v>
+        <v>0.266649959333949</v>
       </c>
       <c r="T6">
-        <v>0.2780775900272549</v>
+        <v>0.266649959333949</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>731.088096626592</v>
+        <v>735.4993083333334</v>
       </c>
       <c r="H7">
-        <v>731.088096626592</v>
+        <v>2206.497925</v>
       </c>
       <c r="I7">
-        <v>0.9525204087980228</v>
+        <v>0.9467182815928301</v>
       </c>
       <c r="J7">
-        <v>0.9525204087980228</v>
+        <v>0.9467182815928301</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N7">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O7">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P7">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q7">
-        <v>102625.5765249122</v>
+        <v>104460.6053194707</v>
       </c>
       <c r="R7">
-        <v>102625.5765249122</v>
+        <v>940145.4478752365</v>
       </c>
       <c r="S7">
-        <v>0.3846123440679248</v>
+        <v>0.3728236235608984</v>
       </c>
       <c r="T7">
-        <v>0.3846123440679248</v>
+        <v>0.3728236235608984</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>30.8493222598426</v>
+        <v>30.939307</v>
       </c>
       <c r="H8">
-        <v>30.8493222598426</v>
+        <v>92.81792100000001</v>
       </c>
       <c r="I8">
-        <v>0.04019297973209322</v>
+        <v>0.03982438491082609</v>
       </c>
       <c r="J8">
-        <v>0.04019297973209322</v>
+        <v>0.03982438491082609</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N8">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O8">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P8">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q8">
-        <v>3263.265080586154</v>
+        <v>3621.277667337841</v>
       </c>
       <c r="R8">
-        <v>3263.265080586154</v>
+        <v>32591.49900604057</v>
       </c>
       <c r="S8">
-        <v>0.01222981711244832</v>
+        <v>0.01292446906398888</v>
       </c>
       <c r="T8">
-        <v>0.01222981711244832</v>
+        <v>0.01292446906398888</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>30.8493222598426</v>
+        <v>30.939307</v>
       </c>
       <c r="H9">
-        <v>30.8493222598426</v>
+        <v>92.81792100000001</v>
       </c>
       <c r="I9">
-        <v>0.04019297973209322</v>
+        <v>0.03982438491082609</v>
       </c>
       <c r="J9">
-        <v>0.04019297973209322</v>
+        <v>0.03982438491082609</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N9">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O9">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P9">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q9">
-        <v>3130.936766259216</v>
+        <v>3142.815960127462</v>
       </c>
       <c r="R9">
-        <v>3130.936766259216</v>
+        <v>28285.34364114716</v>
       </c>
       <c r="S9">
-        <v>0.01173388710276418</v>
+        <v>0.01121682217766495</v>
       </c>
       <c r="T9">
-        <v>0.01173388710276418</v>
+        <v>0.01121682217766495</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>30.8493222598426</v>
+        <v>30.939307</v>
       </c>
       <c r="H10">
-        <v>30.8493222598426</v>
+        <v>92.81792100000001</v>
       </c>
       <c r="I10">
-        <v>0.04019297973209322</v>
+        <v>0.03982438491082609</v>
       </c>
       <c r="J10">
-        <v>0.04019297973209322</v>
+        <v>0.03982438491082609</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N10">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O10">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P10">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q10">
-        <v>4330.435000826136</v>
+        <v>4394.210437408326</v>
       </c>
       <c r="R10">
-        <v>4330.435000826136</v>
+        <v>39547.89393667493</v>
       </c>
       <c r="S10">
-        <v>0.01622927551688072</v>
+        <v>0.01568309366917225</v>
       </c>
       <c r="T10">
-        <v>0.01622927551688072</v>
+        <v>0.01568309366917225</v>
       </c>
     </row>
   </sheetData>
